--- a/Resources/SampleFiles/sample.xlsx
+++ b/Resources/SampleFiles/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrNasmork\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repo\Watermark\nodejs-via-java\src\Resources\SampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD997932-8D07-4653-B232-B519A82E4C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E0553D-4A4E-4C52-AF1B-A2AAEF1E4514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B076E2F9-32E6-458C-92A1-65E758B85E94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B076E2F9-32E6-458C-92A1-65E758B85E94}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,277 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>GroupDocs</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">            GroupDocs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="32"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Watermark</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF808080"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Professional tools for professionals</t>
     </r>
+  </si>
+  <si>
+    <t>Document Watermark Processing Features:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add text and image watermark to supported document formats. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search and remove text and image watermarks. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search watermarks in particular objects. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Apply a watermark to images inside a document. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Work with existing watermark objects. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Extract information of watermark objects in a document. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Perform PDF document rasterization. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search watermarks by text formatting (font, color, etc.). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Set background image for charts in Excel and PowerPoint documents. </t>
     </r>
   </si>
 </sst>
@@ -60,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +320,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -93,6 +339,45 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="38"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,20 +400,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,65 +440,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B276C4-A17F-489C-9FD8-38B82B7F9865}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="5467350" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +481,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -345,7 +587,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,7 +729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,32 +737,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149E543F-949F-4867-B87B-7C9D6C28589B}">
-  <dimension ref="E13:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="5:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="5:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="3" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>